--- a/CDM Content/Digital Building Twin/CDM_AreaMeasurement.xlsx
+++ b/CDM Content/Digital Building Twin/CDM_AreaMeasurement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buildingminds1.sharepoint.com/sites/CDM-testteam/Freigegebene Dokumente/General/CDM Content/Digital Building Twin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{5AC0CF34-C6B0-CB44-BA81-A16AD32406D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3D70ECDA-A723-224E-B772-B2FA34DC229F}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{5AC0CF34-C6B0-CB44-BA81-A16AD32406D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{515B80CB-4E40-984A-9FD8-C1A25AFA601E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" xr2:uid="{32E0B499-A9AC-F24C-B9EB-8C9F64562A3E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{32E0B499-A9AC-F24C-B9EB-8C9F64562A3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Type</t>
   </si>
@@ -51,15 +51,9 @@
     <t>FloorId</t>
   </si>
   <si>
-    <t>GUID</t>
-  </si>
-  <si>
     <t>AreaMeasurementId</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>ValidFrom</t>
   </si>
   <si>
@@ -67,6 +61,18 @@
   </si>
   <si>
     <t>SiteId</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>LandId</t>
+  </si>
+  <si>
+    <t>UnitId</t>
+  </si>
+  <si>
+    <t>Guid</t>
   </si>
 </sst>
 </file>
@@ -102,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,20 +425,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3A3AD2-0930-C948-9564-24CC0744BEBB}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -443,25 +453,31 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
+      <c r="N1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -470,15 +486,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ABB3787A39AC7946B91DE94D6169D5E4" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c3b2cc69efe0420e2057b4cbb3381b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="da2ca412-be8f-4031-b82f-0db1c7fd28cd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="918d4b4cb84e834350b9c914eb39184c" ns2:_="">
     <xsd:import namespace="da2ca412-be8f-4031-b82f-0db1c7fd28cd"/>
@@ -662,36 +669,59 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5F6BCD-732B-43AE-BE96-6C0DCB9A80D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="da2ca412-be8f-4031-b82f-0db1c7fd28cd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{772F4424-E269-4527-AF49-795A0412C9A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="da2ca412-be8f-4031-b82f-0db1c7fd28cd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D2AC6F6-B545-43B1-AE7D-B6A9D8B32407}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5F6BCD-732B-43AE-BE96-6C0DCB9A80D0}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{772F4424-E269-4527-AF49-795A0412C9A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="da2ca412-be8f-4031-b82f-0db1c7fd28cd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>